--- a/Pages/Historical_Massacres/lydda-death-march-1948.xlsx
+++ b/Pages/Historical_Massacres/lydda-death-march-1948.xlsx
@@ -13,17 +13,16 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Quick Facts" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Perpetrators" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Timeline" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="War Crimes List" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="War Crimes Detail" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Testimonies" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sources" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Executive Summary" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="International Law" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Casualties" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Historical Impact" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Media Images" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Media Docs" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CTA Buttons" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="War Crimes Detail" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Testimonies" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sources" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Executive Summary" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="International Law" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Casualties" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Historical Impact" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Media Images" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Media Docs" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CTA Buttons" sheetId="16" state="visible" r:id="rId16"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -710,353 +709,6 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Icon</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Name</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Type</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Description</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Link</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Verified</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>🇵🇸</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Interactive Encyclopedia of the Palestine Question: Lydda, 9–13 July 1948</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Research Synthesis (IPS/PalQuest)</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Comprehensive synthesis: events, casualties, expulsion, testimonies (Busailah, Shammout, others).</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>https://www.palquest.org/en/highlight/24073/lydda-9-13-july-1948</t>
-        </is>
-      </c>
-      <c r="F2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>🗺️</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Institute for Palestine Studies Portal Entry</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Research Institute (IPS)</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Context, casualty ranges, displacement scale, operational details.</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>https://www.palestine-studies.org/en/node/1657540</t>
-        </is>
-      </c>
-      <c r="F3" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>📝</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>'The Fall of Lydda' – Suleiman/Sami Munayyer</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Memoir (archived)</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Resident account: fall of Lydda, Dahmash Mosque massacre, body disposal. Critical primary source.</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>https://web.archive.org/web/20120723132022/http://www.palestine-studies.org/enakba/Memoirs/Munayyer%2C%20The%20Fall%20of%20Lydda.pdf</t>
-        </is>
-      </c>
-      <c r="F4" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>📖</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Wikipedia: Palestinian expulsion from Lydda and Ramle</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Encyclopedic overview</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Summary with extensive citations: expulsion, death tolls, units involved, Rabin censored text.</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>https://en.wikipedia.org/wiki/Palestinian_expulsion_from_Lydda_and_Ramle</t>
-        </is>
-      </c>
-      <c r="F5" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>🎓</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Benny Morris – 'Operation Dani and the Palestinian Exodus from Lydda and Ramle in 1948'</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Peer-reviewed scholarship</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Seminal article: estimates ~400+ in-city deaths, ~50,000–70,000 expelled. Based on IDF archives.</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>https://www.jstor.org/stable/4327250</t>
-        </is>
-      </c>
-      <c r="F6" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>📚</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Benny Morris – 'The Birth of the Palestinian Refugee Problem Revisited' (2004)</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Scholarly monograph</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Updated analysis with newly declassified materials; discusses Rabin censored passages.</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>https://www.cambridge.org/core/books/birth-of-the-palestinian-refugee-problem-revisited/4A0958EED322D2FAC1D245128A1D44CB</t>
-        </is>
-      </c>
-      <c r="F7" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>📘</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Yitzhak Rabin – 'The Rabin Memoirs' (1979/later editions)</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Memoir (primary source)</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>Rabin's account of asking Ben-Gurion about Arab population; expulsion hand gesture. Censored in 1979 Hebrew edition; revealed 1990s.</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>🇬🇧</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>British Mandate Archives &amp; UN Mediator Reports</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Government/International records</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>Contemporary documentation of expulsions and humanitarian crisis. Count Bernadotte reports before assassination.</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>https://www.nationalarchives.gov.uk/</t>
-        </is>
-      </c>
-      <c r="F9" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>⚖️</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>ICRC IHL Treaties Database – Hague (IV) 1907</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Primary law</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>Regulations Arts. 23, 25, 28, 46, 52; customary status by 1948.</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>https://ihl-databases.icrc.org/en/ihl-treaties/hague-conv-iv-1907</t>
-        </is>
-      </c>
-      <c r="F10" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>🇺🇳</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>UN Treaty Collection – Geneva Conventions 1949</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Treaty status</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>Adoption Aug 12, 1949; Israel ratified Jul 6, 1951; Jordan May 29, 1951.</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>https://treaties.un.org/pages/showdetails.aspx?objid=0800000280158b1a</t>
-        </is>
-      </c>
-      <c r="F11" t="b">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1118,7 +770,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1277,7 +929,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>&lt;strong&gt;Application to Operation Dani:&lt;/strong&gt; Allon (operational commander), Rabin (deputy), Dayan (battalion commander), and Lahis (unit officer) held command positions during documented atrocities. No investigations or prosecutions pursued.</t>
+          <t>&lt;strong&gt;Application to Operation Dani:&lt;/strong&gt; Allon (operational commander), Rabin (deputy), Dayan (battalion commander), and Lahis (unit officer) held command positions during documented atrocities. Rabin's own memoir confirms knowledge at highest levels. No investigations or prosecutions pursued.</t>
         </is>
       </c>
       <c r="C10" t="n">
@@ -1319,13 +971,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1354,6 +1006,11 @@
           <t>Detail</t>
         </is>
       </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Sources</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1376,6 +1033,11 @@
           <t>City-wide shootings; Dahmash Mosque massacre (70–250+); homes and streets</t>
         </is>
       </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Morris, Benny. 'Operation Dani and the Palestinian Exodus from Lydda and Ramle in 1948': https://www.jstor.org/stable/4327250</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1398,6 +1060,11 @@
           <t>Heat, thirst, exhaustion; infants, elderly particularly affected</t>
         </is>
       </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Survivor testimonies - IPS/PalQuest: https://www.palquest.org/en/highlight/24073/lydda-9-13-july-1948</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1418,6 +1085,11 @@
       <c r="D4" t="inlineStr">
         <is>
           <t>Entire populations of Lydda (~20K) &amp; Ramle (~17K) + ~30K refugees; forced to Ramallah</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Morris, Benny. 'The Birth of the Palestinian Refugee Problem Revisited' (2004): https://www.cambridge.org/core/books/birth-of-the-palestinian-refugee-problem-revisited/4A0958EED322D2FAC1D245128A1D44CB</t>
         </is>
       </c>
     </row>
@@ -1426,7 +1098,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1695,6 +1367,49 @@
       </c>
       <c r="C17" t="n">
         <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Type</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>remote</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>https://upload.wikimedia.org/wikipedia/commons/thumb/6/6e/Dahmash_Mosque.jpg/1200px-Dahmash_Mosque.jpg</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -1736,7 +1451,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>https://upload.wikimedia.org/wikipedia/commons/thumb/6/6e/Dahmash_Mosque.jpg/1200px-Dahmash_Mosque.jpg</t>
+          <t>https://web.archive.org/web/20120723132022/http://www.palestine-studies.org/enakba/Memoirs/Munayyer%2C%20The%20Fall%20of%20Lydda.pdf</t>
         </is>
       </c>
     </row>
@@ -1746,49 +1461,6 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Type</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Source</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>remote</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>https://web.archive.org/web/20120723132022/http://www.palestine-studies.org/enakba/Memoirs/Munayyer%2C%20The%20Fall%20of%20Lydda.pdf</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2596,32 +2268,6 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>War Crime</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2729,12 +2375,12 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>https://en.wikipedia.org/wiki/Palestinian_expulsion_from_Lydda_and_Ramle</t>
+          <t>https://www.palquest.org/en/highlight/24073/lydda-9-13-july-1948</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>📄 Overview &amp; Citations ↗</t>
+          <t>📄 Survivor Testimonies ↗</t>
         </is>
       </c>
     </row>
@@ -2824,7 +2470,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3001,4 +2647,407 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Icon</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Type</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Link</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Verified</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>🇵🇸</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Interactive Encyclopedia of the Palestine Question: Lydda, 9–13 July 1948</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Research Synthesis (IPS/PalQuest)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Comprehensive synthesis: events, casualties, expulsion, testimonies (Busailah, Shammout, others).</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>https://www.palquest.org/en/highlight/24073/lydda-9-13-july-1948</t>
+        </is>
+      </c>
+      <c r="F2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>📄</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Munayyer, Suleiman. 'The Fall of Lydda' (Memoir)</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Primary Source - Eyewitness Account</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Resident account: fall of Lydda, Dahmash Mosque massacre, body disposal. Critical primary source.</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>https://web.archive.org/web/20120723132022/http://www.palestine-studies.org/enakba/Memoirs/Munayyer%2C%20The%20Fall%20of%20Lydda.pdf</t>
+        </is>
+      </c>
+      <c r="F3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>📚</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Morris, Benny. 'Operation Dani and the Palestinian Exodus from Lydda and Ramle in 1948' - Middle East Journal 40:1 (1986)</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Peer-Reviewed Scholarship</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Seminal article: estimates ~400+ in-city deaths, ~50,000–70,000 expelled. Based on IDF archives.</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>https://www.jstor.org/stable/4327250</t>
+        </is>
+      </c>
+      <c r="F4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>📚</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Morris, Benny. 'The Birth of the Palestinian Refugee Problem Revisited' (Cambridge, 2004)</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Peer-Reviewed Monograph</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Updated analysis with newly declassified materials; discusses Rabin censored passages.</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>https://www.cambridge.org/core/books/birth-of-the-palestinian-refugee-problem-revisited/4A0958EED322D2FAC1D245128A1D44CB</t>
+        </is>
+      </c>
+      <c r="F5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>📖</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Rabin, Yitzhak. 'The Rabin Memoirs' (1979/later editions)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Primary Source - Memoir</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Rabin's account of asking Ben-Gurion about Arab population; expulsion hand gesture. Censored in 1979 Hebrew edition; revealed 1990s.</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>📚</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Pappé, Ilan. 'The Ethnic Cleansing of Palestine' (Oneworld, 2006)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Peer-Reviewed Scholarship</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Analysis of systematic expulsion policies; Lydda-Ramle as central case study.</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>https://www.oip.oup.com/www.oup.com/academic/pdf/13/9781851685554.pdf</t>
+        </is>
+      </c>
+      <c r="F7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>👥</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Busailah, Reja-e &amp; Shammout, Ismail. Survivor Testimonies</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Primary Sources - Oral History</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>First-hand accounts of death march; documented by IPS oral history project.</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>https://www.palquest.org/en/highlight/24073/lydda-9-13-july-1948</t>
+        </is>
+      </c>
+      <c r="F8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>🏥</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>ICRC Field Reports - July 1948</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>International Organization Documentation</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Contemporary documentation of humanitarian crisis during and after expulsions.</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>https://www.icrc.org/</t>
+        </is>
+      </c>
+      <c r="F9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>📰</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Haaretz. 'Top Israeli Court Expunges Conviction of Commander Who Killed Dozens of Egyptian POWs in 1956' (2020)</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Investigative Journalism</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Documents Shmuel Lahis conviction overturning; background on Lydda involvement.</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>https://www.haaretz.com/israel-news/2020-11-02/ty-article/.premium/top-court-expunges-conviction-of-officer-who-killed-dozens-of-egyptian-pows/0000017f-dc29-df9c-a17f-fe6f69620000</t>
+        </is>
+      </c>
+      <c r="F10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>📚</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Milstein, Uri. 'History of Israel's War of Independence' Vol. 4 (1991)</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Military History</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Detailed operational history including command structure; Dayan's battalion role.</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>⚖️</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>ICRC IHL Treaties Database – Hague Convention IV (1907)</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Primary International Law</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Regulations Arts. 23, 25, 28, 46, 52; customary status by 1948.</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>https://ihl-databases.icrc.org/en/ihl-treaties/hague-conv-iv-1907</t>
+        </is>
+      </c>
+      <c r="F12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>🇺🇳</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>UN Treaty Collection – Geneva Conventions (1949)</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Treaty Status Documentation</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Adoption Aug 12, 1949; Israel ratified Jul 6, 1951; Jordan May 29, 1951.</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>https://treaties.un.org/pages/showdetails.aspx?objid=0800000280158b1a</t>
+        </is>
+      </c>
+      <c r="F13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>